--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBaoChiTrongNuoc.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBaoChiTrongNuoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\trangnt3\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Viettel\QLNS\11-10-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   <definedNames>
     <definedName name="__dt__">Sheet1!$B$14:$E$14</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$18:$K$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$25</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$18:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$12:$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -104,12 +104,6 @@
     <t>Nội dung chi</t>
   </si>
   <si>
-    <t>TUQ. CỤC TRƯỞNG</t>
-  </si>
-  <si>
-    <t>TRƯỞNG PHÒNG</t>
-  </si>
-  <si>
     <t>fmNumberBold</t>
   </si>
   <si>
@@ -143,16 +137,7 @@
     <t>Cộng:</t>
   </si>
   <si>
-    <t xml:space="preserve">   CỤC TÀI CHÍNH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PHÒNG KẾ TOÁN</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Số:…/TB-NH</t>
-  </si>
-  <si>
-    <t>NGƯỜI LẬP</t>
   </si>
   <si>
     <t>(Từ ngày &lt;#tungay&gt; đến ngày &lt;#denngay&gt; )</t>
@@ -232,12 +217,36 @@
   <si>
     <t>Đơn vị tính: &lt;#IF(&lt;#dvt&gt;=1;"Nghìn USD";"Nghìn VND")&gt;</t>
   </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#idDonVi&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#idDonViCapDuoi&gt;))&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +348,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -498,7 +514,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -551,6 +567,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,9 +642,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,13 +649,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -614,46 +675,6 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,144 +960,144 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K26"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" style="21" customWidth="1"/>
     <col min="2" max="2" width="24" style="21" customWidth="1"/>
     <col min="3" max="3" width="7" style="21" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" style="21" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="1.140625" style="21"/>
+    <col min="4" max="4" width="22.44140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="0.109375" style="21" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="1.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
-      <c r="J1" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="62"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="J1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="G2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="22"/>
       <c r="H3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="22"/>
+      <c r="H4" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="22"/>
-      <c r="H4" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -1088,7 +1109,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -1100,226 +1121,262 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="2:11" ht="36" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="24"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="2:11" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="55" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="25"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
+      <c r="H21" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="H22" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="I15:K15"/>
+  <mergeCells count="35">
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C13:E13"/>
@@ -1334,6 +1391,27 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I14:K14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1352,12 +1430,12 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1453,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1391,7 +1469,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1487,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1425,7 +1503,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1441,7 +1519,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1461,7 +1539,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1477,7 +1555,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1579,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1535,21 +1613,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="H10" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1561,29 +1639,29 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="N13" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I14" s="15"/>
     </row>
   </sheetData>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBaoChiTrongNuoc.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBaoChiTrongNuoc.xlsx
@@ -16,11 +16,11 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$B$14:$E$14</definedName>
+    <definedName name="__dt__">Sheet1!$B$15:$E$15</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
     <definedName name="KeepRows_1_">Sheet1!$B$18:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$29</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$12:$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$13:$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">     CỘNG HOÀ XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
   <si>
-    <t>THÔNG BÁO</t>
-  </si>
-  <si>
     <t>Đơn vị hưởng</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Cộng:</t>
   </si>
   <si>
-    <t xml:space="preserve">     Số:…/TB-NH</t>
-  </si>
-  <si>
     <t>(Từ ngày &lt;#tungay&gt; đến ngày &lt;#denngay&gt; )</t>
   </si>
   <si>
@@ -156,12 +150,6 @@
   </si>
   <si>
     <t>&lt;#format cell(ItemsFormat)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
-  </si>
-  <si>
-    <t>Mẫu số 06 TT-NH</t>
-  </si>
-  <si>
-    <t>CẤP KINH PHÍ CHI TRONG NƯỚC TỪ NGUỒN QUỸ DỰ TRỮ NGOẠI HỐI</t>
   </si>
   <si>
     <t>&lt;#format cell(fmNumberBold)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
@@ -240,6 +228,18 @@
   </si>
   <si>
     <t>&lt;#evaluate(UPPER(&lt;#idDonViCapDuoi&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTieuDe2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTieuDe1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Số:…./TB-NH</t>
+  </si>
+  <si>
+    <t>Mẫu số 06/TT-NH</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -573,12 +573,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,9 +654,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -674,6 +683,12 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -962,8 +977,8 @@
   </sheetPr>
   <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="B7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -976,304 +991,301 @@
     <col min="6" max="6" width="15.33203125" style="21" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="18" style="21" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="21" customWidth="1"/>
     <col min="12" max="16384" width="1.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
-      <c r="J1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="32"/>
+      <c r="J1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="20"/>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="22"/>
       <c r="H3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="33"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="22"/>
+      <c r="H5" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="2:11" ht="36" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="24"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="22"/>
-      <c r="H4" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="57" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="56" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="2:11" ht="36" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="25"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="31"/>
@@ -1336,32 +1348,32 @@
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="B28" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
+      <c r="H28" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
@@ -1376,30 +1388,29 @@
       <c r="K30" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="H4:K4"/>
+  <mergeCells count="34">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="I12:K12"/>
     <mergeCell ref="B6:K6"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="I14:K14"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
     <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C20:K20"/>
     <mergeCell ref="B19:J19"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:K18"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B28:D28"/>
@@ -1415,7 +1426,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
@@ -1624,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1644,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
@@ -1658,7 +1669,7 @@
         <v>26</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
